--- a/Excel/_Formula.xlsx
+++ b/Excel/_Formula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D107B7-E886-440B-BFAA-6D5BF5BDBC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5135070-FECC-4A93-9BB4-F0F30A668FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -617,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="B2:B20"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,19 +694,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/_Formula.xlsx
+++ b/Excel/_Formula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5135070-FECC-4A93-9BB4-F0F30A668FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47911D81-06F5-4149-94EB-C7762E45976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="10980" yWindow="0" windowWidth="27525" windowHeight="20985" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Factor Name</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -102,18 +102,6 @@
     <t>치명타 배율</t>
   </si>
   <si>
-    <t>스킬 사용 시 데미지 공식 / (디)버프 효과 동일 적용</t>
-  </si>
-  <si>
-    <t>SkillType / OptionType에 따른 효과 적용 / [1=적 공격] 기준</t>
-  </si>
-  <si>
-    <t>- 데미지 = (플레이어 공격력 + Skill 테이블_SkillValue1~2열)* 치명타 시 Global 테이블_CriticalRate</t>
-  </si>
-  <si>
-    <t>- 전투 계산식(적에게 가해질 피해) = ((데미지 – 적 방어력) [행운 발동 시]/2)*(1-(피해 감소 효과[곱연산]))</t>
-  </si>
-  <si>
     <t>캐릭터 별 감소 효과 분리</t>
   </si>
   <si>
@@ -150,7 +138,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 행운 발동 계산 = (행운 스텟/25)/10</t>
+    <t>적 Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 상승(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 적용 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage_Reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 감소 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 감소 퍼센트(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격자 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용 시 데미지 공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage_Increse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 계산식 = ((공격자 데미지 - Defence) - Damage_ReduceStat)*(1-Damage_Reduce)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 발생 시 = (((공격자 데미지 - Defence)*1.5) - Damage_ReduceStat)*(1-Damage_Reduce)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage_ReduceStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageTaken_Increse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격자 데미지 = (Attack + SkillStat)*(1+Damage_Increse+DamageTaken_Increse)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -269,13 +349,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,10 +493,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,102 +849,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G17:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="85.375" customWidth="1"/>
-    <col min="3" max="3" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="112.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="I9" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
+        <f>((B5+C5)*(1+B8+E8))</f>
+        <v>15</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <f>(((B11-D5))-D8)*(1-E5)</f>
+        <v>9</v>
+      </c>
+      <c r="E11" s="8">
+        <f>(((B11-D5)*1.5)-D8)*(1-E5)</f>
+        <v>13.5</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+    <row r="15" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>1</v>
-      </c>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
